--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A4D5A5E-5046-48AD-B6FB-F308C2D473AE}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9130C3F1-3F56-438D-B2C3-33523ED3BA7A}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" activeTab="1" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
-    <sheet name="Time" sheetId="3" r:id="rId2"/>
+    <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="4">
   <si>
-    <t>Waypoint</t>
-  </si>
-  <si>
     <t>Square Wave Speed x</t>
   </si>
   <si>
@@ -50,18 +44,27 @@
   <si>
     <t>Random Speed x</t>
   </si>
+  <si>
+    <t>Waypoint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,7 +75,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -84,18 +94,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,20 +151,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -183,31 +192,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -235,23 +227,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -263,258 +238,367 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
-  <dimension ref="A1:AR1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="44" width="13.53515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR1" s="1"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="B2">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0.105</v>
+      </c>
+      <c r="B3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0.13699999999999998</v>
+      </c>
+      <c r="B4">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0.18</v>
+      </c>
+      <c r="B5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="B6">
+        <v>-1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="B7">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="B8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="B9">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -524,86 +608,89 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572EAA43-E536-4779-B86D-DA8181C395D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="21" width="13.53515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="U1" t="s">
         <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9130C3F1-3F56-438D-B2C3-33523ED3BA7A}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D0D2C3-D6B3-4A3F-837F-531547437671}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="1149" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -587,6 +587,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AE1:AF1"/>
@@ -594,21 +609,6 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D0D2C3-D6B3-4A3F-837F-531547437671}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185E7B9E-EFE5-4D41-AD8D-946E0C9E4AE9}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="1149" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3154" yWindow="986" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="29">
   <si>
     <t>Square Wave Speed x</t>
   </si>
@@ -46,6 +46,81 @@
   </si>
   <si>
     <t>Waypoint</t>
+  </si>
+  <si>
+    <t>0.18,0.07</t>
+  </si>
+  <si>
+    <t>0.22,-0.00</t>
+  </si>
+  <si>
+    <t>0.23,-0.09</t>
+  </si>
+  <si>
+    <t>0.43,-0.10</t>
+  </si>
+  <si>
+    <t>0.37,-0.00</t>
+  </si>
+  <si>
+    <t>0.44,0.11</t>
+  </si>
+  <si>
+    <t>0.00,0.00</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 1 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>0.23,-0.08</t>
+  </si>
+  <si>
+    <t>0.36,0.00</t>
+  </si>
+  <si>
+    <t>0.22,0.00</t>
+  </si>
+  <si>
+    <t>0.43,-0.11</t>
+  </si>
+  <si>
+    <t>0.36,-0.00</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>0.43,-0.03</t>
+  </si>
+  <si>
+    <t>0.43,0.02</t>
+  </si>
+  <si>
+    <t>0.43,0.07</t>
+  </si>
+  <si>
+    <t>0.44,0.12</t>
+  </si>
+  <si>
+    <t>0.43,-0.07</t>
+  </si>
+  <si>
+    <t>0.23,-0.01</t>
+  </si>
+  <si>
+    <t>0.36,-0.01</t>
+  </si>
+  <si>
+    <t>0.21,-0.00</t>
+  </si>
+  <si>
+    <t>0.36,0.01</t>
+  </si>
+  <si>
+    <t>0.23,0.00</t>
+  </si>
+  <si>
+    <t>0.37,0.01</t>
   </si>
 </sst>
 </file>
@@ -94,11 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,15 +480,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AR32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="44" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" customWidth="1"/>
+    <col min="5" max="44" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -420,42 +498,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2"/>
       <c r="U1" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,6 +558,57 @@
       <c r="B2">
         <v>-6.5000000000000002E-2</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -520,6 +617,57 @@
       <c r="B3">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -528,6 +676,57 @@
       <c r="B4">
         <v>2.6000000000000002E-2</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -536,6 +735,57 @@
       <c r="B5">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -544,6 +794,57 @@
       <c r="B6">
         <v>-1.1000000000000001E-2</v>
       </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -552,6 +853,57 @@
       <c r="B7">
         <v>-9.8000000000000004E-2</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -560,6 +912,57 @@
       <c r="B8">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -568,6 +971,57 @@
       <c r="B9">
         <v>-3.3000000000000002E-2</v>
       </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -576,6 +1030,57 @@
       <c r="B10">
         <v>0.124</v>
       </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -584,24 +1089,429 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>26000</v>
+      </c>
+      <c r="D17">
+        <v>28078</v>
+      </c>
+      <c r="E17">
+        <v>27329</v>
+      </c>
+      <c r="F17">
+        <v>25928</v>
+      </c>
+      <c r="G17">
+        <v>26590</v>
+      </c>
+      <c r="H17">
+        <v>25682</v>
+      </c>
+      <c r="I17">
+        <v>24329</v>
+      </c>
+      <c r="J17">
+        <v>24237</v>
+      </c>
+      <c r="K17">
+        <v>26863</v>
+      </c>
+      <c r="L17">
+        <v>25366</v>
+      </c>
+      <c r="M17">
+        <v>24429</v>
+      </c>
+      <c r="N17">
+        <v>28440</v>
+      </c>
+      <c r="O17">
+        <v>23824</v>
+      </c>
+      <c r="P17">
+        <v>23725</v>
+      </c>
+      <c r="Q17">
+        <v>30270</v>
+      </c>
+      <c r="R17">
+        <v>26197</v>
+      </c>
+      <c r="S17">
+        <v>25541</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
+  <mergeCells count="21">
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AE1:AF1"/>
@@ -609,6 +1519,20 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185E7B9E-EFE5-4D41-AD8D-946E0C9E4AE9}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E06AFF48-7A24-464B-92F6-E5EE4D56E778}"/>
   <bookViews>
     <workbookView xWindow="3154" yWindow="986" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
-    <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="40">
   <si>
     <t>Square Wave Speed x</t>
   </si>
@@ -42,9 +41,6 @@
     <t>Sin Wave Speed x</t>
   </si>
   <si>
-    <t>Random Speed x</t>
-  </si>
-  <si>
     <t>Waypoint</t>
   </si>
   <si>
@@ -121,13 +117,49 @@
   </si>
   <si>
     <t>0.37,0.01</t>
+  </si>
+  <si>
+    <t>0.37,0.00</t>
+  </si>
+  <si>
+    <t>0.37,-0.01</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 2 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>0.22,-0.09</t>
+  </si>
+  <si>
+    <t>0.21,-0.01</t>
+  </si>
+  <si>
+    <t>0.17,0.07</t>
+  </si>
+  <si>
+    <t>0.23,0.01</t>
+  </si>
+  <si>
+    <t>0.24,-0.10</t>
+  </si>
+  <si>
+    <t>0.22,0.01</t>
+  </si>
+  <si>
+    <t>0.22,-0.01</t>
+  </si>
+  <si>
+    <t>0.23,-0.10</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 3 A0.1 W0.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +172,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,78 +519,60 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AR32"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.53515625" customWidth="1"/>
-    <col min="5" max="44" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="27" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.53515625" customWidth="1"/>
+    <col min="29" max="45" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="U1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="1"/>
+    <row r="1" spans="1:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
       <c r="AC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR1" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="BD1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9.4E-2</v>
       </c>
@@ -559,58 +580,163 @@
         <v>-6.5000000000000002E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.105</v>
       </c>
@@ -618,58 +744,163 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AQ3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
+      <c r="AR3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.13699999999999998</v>
       </c>
@@ -677,58 +908,163 @@
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="AF4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
-        <v>10</v>
+      <c r="AL4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.18</v>
       </c>
@@ -736,58 +1072,163 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" t="s">
-        <v>10</v>
+      <c r="AW5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.21299999999999999</v>
       </c>
@@ -795,58 +1236,163 @@
         <v>-1.1000000000000001E-2</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.22399999999999998</v>
       </c>
@@ -854,58 +1400,163 @@
         <v>-9.8000000000000004E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.26700000000000002</v>
       </c>
@@ -913,58 +1564,163 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.29899999999999999</v>
       </c>
@@ -972,58 +1728,163 @@
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.33200000000000002</v>
       </c>
@@ -1031,58 +1892,163 @@
         <v>0.124</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.35399999999999998</v>
       </c>
@@ -1090,325 +2056,955 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S11" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S12" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S15" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T15" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>26000</v>
@@ -1461,163 +3057,177 @@
       <c r="S17">
         <v>25541</v>
       </c>
+      <c r="T17">
+        <v>27308</v>
+      </c>
+      <c r="U17">
+        <v>24337</v>
+      </c>
+      <c r="V17">
+        <v>24634</v>
+      </c>
+      <c r="W17">
+        <v>23106</v>
+      </c>
+      <c r="X17">
+        <v>30138</v>
+      </c>
+      <c r="Y17">
+        <v>23619</v>
+      </c>
+      <c r="Z17">
+        <v>25078</v>
+      </c>
+      <c r="AA17">
+        <v>26774</v>
+      </c>
+      <c r="AC17">
+        <v>15339</v>
+      </c>
+      <c r="AD17">
+        <v>15239</v>
+      </c>
+      <c r="AE17">
+        <v>15213</v>
+      </c>
+      <c r="AF17">
+        <v>15267</v>
+      </c>
+      <c r="AG17">
+        <v>15237</v>
+      </c>
+      <c r="AH17">
+        <v>15155</v>
+      </c>
+      <c r="AI17">
+        <v>14989</v>
+      </c>
+      <c r="AJ17">
+        <v>17439</v>
+      </c>
+      <c r="AK17">
+        <v>16597</v>
+      </c>
+      <c r="AL17">
+        <v>15141</v>
+      </c>
+      <c r="AM17">
+        <v>15730</v>
+      </c>
+      <c r="AN17">
+        <v>15266</v>
+      </c>
+      <c r="AO17">
+        <v>15083</v>
+      </c>
+      <c r="AP17">
+        <v>15930</v>
+      </c>
+      <c r="AQ17">
+        <v>15136</v>
+      </c>
+      <c r="AR17">
+        <v>15457</v>
+      </c>
+      <c r="AS17">
+        <v>18423</v>
+      </c>
+      <c r="AT17">
+        <v>15763</v>
+      </c>
+      <c r="AU17">
+        <v>15489</v>
+      </c>
+      <c r="AV17">
+        <v>15163</v>
+      </c>
+      <c r="AW17">
+        <v>15583</v>
+      </c>
+      <c r="AX17">
+        <v>17357</v>
+      </c>
+      <c r="AY17">
+        <v>15270</v>
+      </c>
+      <c r="AZ17">
+        <v>15538</v>
+      </c>
+      <c r="BA17">
+        <v>15422</v>
+      </c>
+      <c r="BB17">
+        <v>15257</v>
+      </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C28" s="1" t="s">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="C32" s="1" t="s">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="32" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="C32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="21" width="13.53515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E06AFF48-7A24-464B-92F6-E5EE4D56E778}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553BA6BD-B82B-4916-9B27-1501BC63183C}"/>
   <bookViews>
     <workbookView xWindow="3154" yWindow="986" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="83">
   <si>
     <t>Square Wave Speed x</t>
   </si>
@@ -153,6 +153,135 @@
   </si>
   <si>
     <t>Square Wave Speed 3 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>0.23,-0.11</t>
+  </si>
+  <si>
+    <t>0.18,0.09</t>
+  </si>
+  <si>
+    <t>0.20,-0.14</t>
+  </si>
+  <si>
+    <t>0.36,0.02</t>
+  </si>
+  <si>
+    <t>0.37,-0.02</t>
+  </si>
+  <si>
+    <t>0.41,0.14</t>
+  </si>
+  <si>
+    <t>0.39,0.13</t>
+  </si>
+  <si>
+    <t>0.40,0.14</t>
+  </si>
+  <si>
+    <t>0.36,-0.03</t>
+  </si>
+  <si>
+    <t>0.38,0.13</t>
+  </si>
+  <si>
+    <t>0.44,0.10</t>
+  </si>
+  <si>
+    <t>0.16,0.02</t>
+  </si>
+  <si>
+    <t>0.21,0.06</t>
+  </si>
+  <si>
+    <t>0.21,-0.02</t>
+  </si>
+  <si>
+    <t>0.43,0.12</t>
+  </si>
+  <si>
+    <t>0.43,0.11</t>
+  </si>
+  <si>
+    <t>0.40,0.13</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 1 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.11,0.04</t>
+  </si>
+  <si>
+    <t>0.10,-0.06</t>
+  </si>
+  <si>
+    <t>0.23,-0.02</t>
+  </si>
+  <si>
+    <t>0.19,0.07</t>
+  </si>
+  <si>
+    <t>0.29,0.04</t>
+  </si>
+  <si>
+    <t>0.28,0.04</t>
+  </si>
+  <si>
+    <t>0.32,-0.03</t>
+  </si>
+  <si>
+    <t>0.19,0.06</t>
+  </si>
+  <si>
+    <t>0.29,0.03</t>
+  </si>
+  <si>
+    <t>0.11,-0.06</t>
+  </si>
+  <si>
+    <t>0.20,0.07</t>
+  </si>
+  <si>
+    <t>0.22,-0.02</t>
+  </si>
+  <si>
+    <t>0.16,0.03</t>
+  </si>
+  <si>
+    <t>0.22,-0.10</t>
+  </si>
+  <si>
+    <t>0.28,0.03</t>
+  </si>
+  <si>
+    <t>0.11,0.05</t>
+  </si>
+  <si>
+    <t>0.31,-0.02</t>
+  </si>
+  <si>
+    <t>0.32,-0.02</t>
+  </si>
+  <si>
+    <t>0.31,-0.03</t>
+  </si>
+  <si>
+    <t>0.23,-0.03</t>
+  </si>
+  <si>
+    <t>0.31,-0.04</t>
+  </si>
+  <si>
+    <t>0.11,-0.05</t>
+  </si>
+  <si>
+    <t>0.32,-0.01</t>
+  </si>
+  <si>
+    <t>0.30,-0.14</t>
+  </si>
+  <si>
+    <t>0.38,0.01</t>
   </si>
 </sst>
 </file>
@@ -207,13 +336,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +647,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:DC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2:BD16"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="DC17" sqref="DC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -534,7 +662,7 @@
     <col min="29" max="45" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -543,36 +671,39 @@
         <v>10</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
       <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
       <c r="BD1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="CE1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9.4E-2</v>
       </c>
@@ -735,8 +866,158 @@
       <c r="BD2" t="s">
         <v>33</v>
       </c>
+      <c r="BE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>58</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>59</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.105</v>
       </c>
@@ -899,8 +1180,158 @@
       <c r="BD3" t="s">
         <v>32</v>
       </c>
+      <c r="BE3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>67</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>67</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.13699999999999998</v>
       </c>
@@ -1063,8 +1494,158 @@
       <c r="BD4" t="s">
         <v>5</v>
       </c>
+      <c r="BE4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>48</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.18</v>
       </c>
@@ -1227,8 +1808,158 @@
       <c r="BD5" t="s">
         <v>7</v>
       </c>
+      <c r="BE5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>23</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>50</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>65</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>38</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>65</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.21299999999999999</v>
       </c>
@@ -1391,8 +2122,158 @@
       <c r="BD6" t="s">
         <v>9</v>
       </c>
+      <c r="BE6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>68</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>70</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>51</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>65</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>68</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>61</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.22399999999999998</v>
       </c>
@@ -1555,8 +2436,158 @@
       <c r="BD7" t="s">
         <v>9</v>
       </c>
+      <c r="BE7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>63</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>66</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>72</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>61</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>62</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>62</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>68</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>62</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>62</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>61</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>63</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>66</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>44</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>62</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.26700000000000002</v>
       </c>
@@ -1719,8 +2750,158 @@
       <c r="BD8" t="s">
         <v>9</v>
       </c>
+      <c r="BE8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>28</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>29</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>76</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.29899999999999999</v>
       </c>
@@ -1883,8 +3064,158 @@
       <c r="BD9" t="s">
         <v>9</v>
       </c>
+      <c r="BE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>29</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>29</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>29</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>29</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>29</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>29</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.33200000000000002</v>
       </c>
@@ -2047,8 +3378,158 @@
       <c r="BD10" t="s">
         <v>9</v>
       </c>
+      <c r="BE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.35399999999999998</v>
       </c>
@@ -2211,8 +3692,158 @@
       <c r="BD11" t="s">
         <v>9</v>
       </c>
+      <c r="BE11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -2369,8 +4000,158 @@
       <c r="BD12" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -2527,8 +4308,158 @@
       <c r="BD13" t="s">
         <v>9</v>
       </c>
+      <c r="BE13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -2685,8 +4616,158 @@
       <c r="BD14" t="s">
         <v>9</v>
       </c>
+      <c r="BE14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -2843,8 +4924,158 @@
       <c r="BD15" t="s">
         <v>9</v>
       </c>
+      <c r="BE15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -3001,8 +5232,158 @@
       <c r="BD16" t="s">
         <v>9</v>
       </c>
+      <c r="BE16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:107" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3159,56 +5540,209 @@
       <c r="BB17">
         <v>15257</v>
       </c>
+      <c r="BD17">
+        <v>11110</v>
+      </c>
+      <c r="BE17">
+        <v>12103</v>
+      </c>
+      <c r="BF17">
+        <v>12612</v>
+      </c>
+      <c r="BG17">
+        <v>12594</v>
+      </c>
+      <c r="BH17">
+        <v>14063</v>
+      </c>
+      <c r="BI17">
+        <v>14880</v>
+      </c>
+      <c r="BJ17">
+        <v>13968</v>
+      </c>
+      <c r="BK17">
+        <v>14504</v>
+      </c>
+      <c r="BL17">
+        <v>11481</v>
+      </c>
+      <c r="BM17">
+        <v>11547</v>
+      </c>
+      <c r="BN17">
+        <v>11042</v>
+      </c>
+      <c r="BO17">
+        <v>11209</v>
+      </c>
+      <c r="BP17">
+        <v>11240</v>
+      </c>
+      <c r="BQ17">
+        <v>12475</v>
+      </c>
+      <c r="BR17">
+        <v>11762</v>
+      </c>
+      <c r="BS17">
+        <v>11604</v>
+      </c>
+      <c r="BT17">
+        <v>11679</v>
+      </c>
+      <c r="BU17">
+        <v>12481</v>
+      </c>
+      <c r="BV17">
+        <v>11728</v>
+      </c>
+      <c r="BW17">
+        <v>11085</v>
+      </c>
+      <c r="BX17">
+        <v>11155</v>
+      </c>
+      <c r="BY17">
+        <v>11168</v>
+      </c>
+      <c r="BZ17">
+        <v>11894</v>
+      </c>
+      <c r="CA17">
+        <v>11242</v>
+      </c>
+      <c r="CB17">
+        <v>10897</v>
+      </c>
+      <c r="CC17">
+        <v>11094</v>
+      </c>
+      <c r="CE17">
+        <v>37842</v>
+      </c>
+      <c r="CF17">
+        <v>38296</v>
+      </c>
+      <c r="CG17">
+        <v>37144</v>
+      </c>
+      <c r="CH17">
+        <v>39723</v>
+      </c>
+      <c r="CI17">
+        <v>35253</v>
+      </c>
+      <c r="CJ17">
+        <v>41887</v>
+      </c>
+      <c r="CK17">
+        <v>37159</v>
+      </c>
+      <c r="CL17">
+        <v>37910</v>
+      </c>
+      <c r="CM17">
+        <v>35372</v>
+      </c>
+      <c r="CN17">
+        <v>37053</v>
+      </c>
+      <c r="CO17">
+        <v>38631</v>
+      </c>
+      <c r="CP17">
+        <v>37080</v>
+      </c>
+      <c r="CQ17">
+        <v>38630</v>
+      </c>
+      <c r="CR17">
+        <v>38646</v>
+      </c>
+      <c r="CS17">
+        <v>38879</v>
+      </c>
+      <c r="CT17">
+        <v>37867</v>
+      </c>
+      <c r="CU17">
+        <v>37371</v>
+      </c>
+      <c r="CV17">
+        <v>37963</v>
+      </c>
+      <c r="CW17">
+        <v>41129</v>
+      </c>
+      <c r="CX17">
+        <v>39086</v>
+      </c>
+      <c r="CY17">
+        <v>36877</v>
+      </c>
+      <c r="CZ17">
+        <v>35280</v>
+      </c>
+      <c r="DA17">
+        <v>35595</v>
+      </c>
+      <c r="DB17">
+        <v>37827</v>
+      </c>
+      <c r="DC17">
+        <v>37036</v>
+      </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:107" x14ac:dyDescent="0.4">
       <c r="C32" s="2" t="s">
         <v>0</v>
       </c>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553BA6BD-B82B-4916-9B27-1501BC63183C}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C924A3F-6783-44B7-AE2B-99CD76966BBA}"/>
   <bookViews>
-    <workbookView xWindow="3154" yWindow="986" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3497" yWindow="1329" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="114">
   <si>
     <t>Square Wave Speed x</t>
   </si>
@@ -282,6 +282,99 @@
   </si>
   <si>
     <t>0.38,0.01</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 2 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.12,0.04</t>
+  </si>
+  <si>
+    <t>0.09,-0.06</t>
+  </si>
+  <si>
+    <t>0.30,-0.04</t>
+  </si>
+  <si>
+    <t>0.18,0.06</t>
+  </si>
+  <si>
+    <t>0.27,0.04</t>
+  </si>
+  <si>
+    <t>0.22,-0.11</t>
+  </si>
+  <si>
+    <t>0.10,-0.05</t>
+  </si>
+  <si>
+    <t>0.36,-0.02</t>
+  </si>
+  <si>
+    <t>0.19,0.08</t>
+  </si>
+  <si>
+    <t>0.27,0.05</t>
+  </si>
+  <si>
+    <t>0.31,-0.14</t>
+  </si>
+  <si>
+    <t>0.18,0.08</t>
+  </si>
+  <si>
+    <t>0.28,0.06</t>
+  </si>
+  <si>
+    <t>0.31,-0.01</t>
+  </si>
+  <si>
+    <t>0.29,-0.13</t>
+  </si>
+  <si>
+    <t>0.34,-0.14</t>
+  </si>
+  <si>
+    <t>0.30,-0.03</t>
+  </si>
+  <si>
+    <t>0.13,0.03</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 3 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.21,-0.10</t>
+  </si>
+  <si>
+    <t>0.30,-0.02</t>
+  </si>
+  <si>
+    <t>0.27,0.03</t>
+  </si>
+  <si>
+    <t>0.10,0.04</t>
+  </si>
+  <si>
+    <t>0.44,0.09</t>
+  </si>
+  <si>
+    <t>0.44,0.13</t>
+  </si>
+  <si>
+    <t>0.45,0.11</t>
+  </si>
+  <si>
+    <t>0.22,-0.03</t>
+  </si>
+  <si>
+    <t>0.10,-0.07</t>
+  </si>
+  <si>
+    <t>0.20,0.06</t>
+  </si>
+  <si>
+    <t>0.37,-0.03</t>
   </si>
 </sst>
 </file>
@@ -647,10 +740,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:DC32"/>
+  <dimension ref="A1:FC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="DC17" sqref="DC17"/>
+    <sheetView tabSelected="1" topLeftCell="EA1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="EK7" sqref="EK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -662,7 +755,7 @@
     <col min="29" max="45" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:159" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -702,8 +795,14 @@
       <c r="CE1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="DE1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9.4E-2</v>
       </c>
@@ -1016,8 +1115,158 @@
       <c r="DC2" t="s">
         <v>73</v>
       </c>
+      <c r="DE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>84</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>73</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>73</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>106</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>73</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>58</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.105</v>
       </c>
@@ -1330,8 +1579,158 @@
       <c r="DC3" t="s">
         <v>79</v>
       </c>
+      <c r="DE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>85</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>85</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>67</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>71</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>85</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>90</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>31</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>71</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>85</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>59</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>111</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>85</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.13699999999999998</v>
       </c>
@@ -1644,8 +2043,158 @@
       <c r="DC4" t="s">
         <v>5</v>
       </c>
+      <c r="DE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>69</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>85</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>103</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>85</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>3</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>38</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>85</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>61</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>38</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>61</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>71</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>31</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>31</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>89</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.18</v>
       </c>
@@ -1958,8 +2507,158 @@
       <c r="DC5" t="s">
         <v>22</v>
       </c>
+      <c r="DE5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>53</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>61</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>65</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>53</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>37</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>65</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>53</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>37</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>32</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>53</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>65</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>53</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>92</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>37</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>71</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>32</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>53</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>3</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>87</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>71</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>93</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>93</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>61</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>71</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>76</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>32</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>61</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>88</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>53</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>61</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>37</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>65</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>61</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>65</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>110</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>38</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>61</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>112</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.21299999999999999</v>
       </c>
@@ -2272,8 +2971,158 @@
       <c r="DC6" t="s">
         <v>61</v>
       </c>
+      <c r="DE6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>87</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>88</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>74</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>29</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>76</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>76</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>61</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>76</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>61</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>29</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>76</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>74</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>93</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>95</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>93</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>69</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>61</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>104</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>88</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>65</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>74</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>74</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>74</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>53</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>44</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>65</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>76</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>74</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>61</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>62</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>61</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>88</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>76</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>76</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>61</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>78</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>78</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.22399999999999998</v>
       </c>
@@ -2586,8 +3435,158 @@
       <c r="DC7" t="s">
         <v>80</v>
       </c>
+      <c r="DE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>86</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>74</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>28</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>29</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>23</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>29</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>76</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>29</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>78</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>88</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>44</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>29</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>72</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>74</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>96</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>100</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>87</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>74</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>88</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>100</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>54</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>100</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>105</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>100</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>28</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>61</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>76</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>44</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>88</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>75</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>75</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>76</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>29</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>29</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>76</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>7</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>113</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>44</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.26700000000000002</v>
       </c>
@@ -2900,8 +3899,158 @@
       <c r="DC8" t="s">
         <v>81</v>
       </c>
+      <c r="DE8" t="s">
+        <v>29</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>29</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>44</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>29</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>44</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>74</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>8</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>64</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>94</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>97</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>15</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>88</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>15</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>100</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>55</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>23</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>91</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>29</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>72</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>29</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>76</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>7</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>28</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>29</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>44</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>46</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.29899999999999999</v>
       </c>
@@ -3214,8 +4363,158 @@
       <c r="DC9" t="s">
         <v>82</v>
       </c>
+      <c r="DE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>8</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>50</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>29</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>27</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>98</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>100</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>47</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>23</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>29</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>107</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.33200000000000002</v>
       </c>
@@ -3528,8 +4827,158 @@
       <c r="DC10" t="s">
         <v>9</v>
       </c>
+      <c r="DE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>45</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>99</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>55</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>9</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>45</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:159" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.35399999999999998</v>
       </c>
@@ -3842,8 +5291,158 @@
       <c r="DC11" t="s">
         <v>9</v>
       </c>
+      <c r="DE11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>25</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>9</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU11" t="s">
+        <v>108</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB11" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:159" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -4150,8 +5749,158 @@
       <c r="DC12" t="s">
         <v>9</v>
       </c>
+      <c r="DE12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>9</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>9</v>
+      </c>
+      <c r="ES12" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU12" t="s">
+        <v>109</v>
+      </c>
+      <c r="EV12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA12" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB12" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC12" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -4458,8 +6207,158 @@
       <c r="DC13" t="s">
         <v>9</v>
       </c>
+      <c r="DE13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>9</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>9</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB13" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:159" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -4766,8 +6665,158 @@
       <c r="DC14" t="s">
         <v>9</v>
       </c>
+      <c r="DE14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>9</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC14" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:159" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -5074,8 +7123,158 @@
       <c r="DC15" t="s">
         <v>9</v>
       </c>
+      <c r="DE15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>9</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>9</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA15" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC15" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:159" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -5382,8 +7581,158 @@
       <c r="DC16" t="s">
         <v>9</v>
       </c>
+      <c r="DE16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>9</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY16" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ16" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA16" t="s">
+        <v>9</v>
+      </c>
+      <c r="FB16" t="s">
+        <v>9</v>
+      </c>
+      <c r="FC16" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:159" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -5693,56 +8042,206 @@
       <c r="DC17">
         <v>37036</v>
       </c>
+      <c r="DE17">
+        <v>25131</v>
+      </c>
+      <c r="DF17">
+        <v>24023</v>
+      </c>
+      <c r="DG17">
+        <v>27256</v>
+      </c>
+      <c r="DH17">
+        <v>24242</v>
+      </c>
+      <c r="DI17">
+        <v>23506</v>
+      </c>
+      <c r="DJ17">
+        <v>23777</v>
+      </c>
+      <c r="DK17">
+        <v>23557</v>
+      </c>
+      <c r="DL17">
+        <v>22794</v>
+      </c>
+      <c r="DM17">
+        <v>23413</v>
+      </c>
+      <c r="DN17">
+        <v>23262</v>
+      </c>
+      <c r="DO17">
+        <v>23365</v>
+      </c>
+      <c r="DP17">
+        <v>22598</v>
+      </c>
+      <c r="DQ17">
+        <v>24670</v>
+      </c>
+      <c r="DR17">
+        <v>23249</v>
+      </c>
+      <c r="DS17">
+        <v>22882</v>
+      </c>
+      <c r="DT17">
+        <v>24091</v>
+      </c>
+      <c r="DU17">
+        <v>24346</v>
+      </c>
+      <c r="DV17">
+        <v>26399</v>
+      </c>
+      <c r="DW17">
+        <v>24067</v>
+      </c>
+      <c r="DX17">
+        <v>23604</v>
+      </c>
+      <c r="DY17">
+        <v>24176</v>
+      </c>
+      <c r="DZ17">
+        <v>24736</v>
+      </c>
+      <c r="EA17">
+        <v>23467</v>
+      </c>
+      <c r="EB17">
+        <v>24387</v>
+      </c>
+      <c r="EC17">
+        <v>23287</v>
+      </c>
+      <c r="EE17">
+        <v>17183</v>
+      </c>
+      <c r="EF17">
+        <v>18199</v>
+      </c>
+      <c r="EG17">
+        <v>17266</v>
+      </c>
+      <c r="EH17">
+        <v>20750</v>
+      </c>
+      <c r="EI17">
+        <v>17041</v>
+      </c>
+      <c r="EJ17">
+        <v>19638</v>
+      </c>
+      <c r="EK17">
+        <v>17157</v>
+      </c>
+      <c r="EL17">
+        <v>17250</v>
+      </c>
+      <c r="EM17">
+        <v>18847</v>
+      </c>
+      <c r="EN17">
+        <v>17732</v>
+      </c>
+      <c r="EO17">
+        <v>17206</v>
+      </c>
+      <c r="EP17">
+        <v>18066</v>
+      </c>
+      <c r="EQ17">
+        <v>18953</v>
+      </c>
+      <c r="ER17">
+        <v>18632</v>
+      </c>
+      <c r="ES17">
+        <v>18816</v>
+      </c>
+      <c r="ET17">
+        <v>20457</v>
+      </c>
+      <c r="EU17">
+        <v>18640</v>
+      </c>
+      <c r="EV17">
+        <v>18683</v>
+      </c>
+      <c r="EW17">
+        <v>19109</v>
+      </c>
+      <c r="EX17">
+        <v>20605</v>
+      </c>
+      <c r="EY17">
+        <v>19598</v>
+      </c>
+      <c r="EZ17">
+        <v>23191</v>
+      </c>
+      <c r="FA17">
+        <v>19450</v>
+      </c>
+      <c r="FB17">
+        <v>19844</v>
+      </c>
+      <c r="FC17">
+        <v>20646</v>
+      </c>
     </row>
-    <row r="22" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="32" spans="2:107" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:159" x14ac:dyDescent="0.4">
       <c r="C32" s="2" t="s">
         <v>0</v>
       </c>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="11_15B070DFB61526E87D0EFF6311960E32AC82380C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{524472AF-715E-4EC4-9B3E-E5068008A58E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDAFB85-B402-4C4B-8D01-DD2C84D2F078}"/>
   <bookViews>
-    <workbookView xWindow="3497" yWindow="1329" windowWidth="19286" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="118">
   <si>
     <t>Waypoint</t>
   </si>
@@ -372,6 +372,21 @@
   </si>
   <si>
     <t>Sin Wave Speed 1 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>0.15,0.03</t>
+  </si>
+  <si>
+    <t>0.35,-0.02</t>
+  </si>
+  <si>
+    <t>0.14,0.04</t>
+  </si>
+  <si>
+    <t>0.15,0.04</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 2 A0.1 W0.4</t>
   </si>
 </sst>
 </file>
@@ -426,13 +441,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +752,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:FE32"/>
+  <dimension ref="A1:GE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="EY1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="GE17" sqref="GE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -753,7 +767,7 @@
     <col min="29" max="45" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:187" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,8 +816,11 @@
       <c r="FE1" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="GE1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9.4E-2</v>
       </c>
@@ -1266,8 +1283,83 @@
       <c r="FC2" t="s">
         <v>56</v>
       </c>
+      <c r="FE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>116</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>85</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>113</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>115</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>116</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="3" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.105</v>
       </c>
@@ -1730,8 +1822,83 @@
       <c r="FC3" t="s">
         <v>57</v>
       </c>
+      <c r="FE3" t="s">
+        <v>35</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>59</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>35</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>59</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>35</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>30</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>113</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>93</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>30</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>35</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>90</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>35</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.13699999999999998</v>
       </c>
@@ -2194,8 +2361,83 @@
       <c r="FC4" t="s">
         <v>69</v>
       </c>
+      <c r="FE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>51</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>29</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>29</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>29</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>30</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>22</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>22</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>29</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>22</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>30</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.18</v>
       </c>
@@ -2658,8 +2900,83 @@
       <c r="FC5" t="s">
         <v>63</v>
       </c>
+      <c r="FE5" t="s">
+        <v>89</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>21</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>3</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>21</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>21</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>3</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>3</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>21</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>3</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>21</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>29</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>89</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.21299999999999999</v>
       </c>
@@ -3122,8 +3439,83 @@
       <c r="FC6" t="s">
         <v>74</v>
       </c>
+      <c r="FE6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>114</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>89</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>89</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>5</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV6" t="s">
+        <v>89</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>21</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>21</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>21</v>
+      </c>
+      <c r="GB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.22399999999999998</v>
       </c>
@@ -3586,8 +3978,83 @@
       <c r="FC7" t="s">
         <v>27</v>
       </c>
+      <c r="FE7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.26700000000000002</v>
       </c>
@@ -4050,8 +4517,83 @@
       <c r="FC8" t="s">
         <v>7</v>
       </c>
+      <c r="FE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.29899999999999999</v>
       </c>
@@ -4514,8 +5056,83 @@
       <c r="FC9" t="s">
         <v>7</v>
       </c>
+      <c r="FE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.33200000000000002</v>
       </c>
@@ -4978,8 +5595,83 @@
       <c r="FC10" t="s">
         <v>7</v>
       </c>
+      <c r="FE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.35399999999999998</v>
       </c>
@@ -5442,8 +6134,83 @@
       <c r="FC11" t="s">
         <v>7</v>
       </c>
+      <c r="FE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:187" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -5900,8 +6667,83 @@
       <c r="FC12" t="s">
         <v>7</v>
       </c>
+      <c r="FE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:187" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -6358,8 +7200,83 @@
       <c r="FC13" t="s">
         <v>7</v>
       </c>
+      <c r="FE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:187" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -6816,8 +7733,83 @@
       <c r="FC14" t="s">
         <v>7</v>
       </c>
+      <c r="FE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:187" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -7274,8 +8266,83 @@
       <c r="FC15" t="s">
         <v>7</v>
       </c>
+      <c r="FE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:161" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:187" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -7732,8 +8799,83 @@
       <c r="FC16" t="s">
         <v>7</v>
       </c>
+      <c r="FE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FH16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FJ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FN16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="2:159" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:185" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -8193,42 +9335,117 @@
       <c r="FC17">
         <v>20646</v>
       </c>
+      <c r="FE17">
+        <v>19676</v>
+      </c>
+      <c r="FF17">
+        <v>20053</v>
+      </c>
+      <c r="FG17">
+        <v>20337</v>
+      </c>
+      <c r="FH17">
+        <v>22105</v>
+      </c>
+      <c r="FI17">
+        <v>21885</v>
+      </c>
+      <c r="FJ17">
+        <v>22996</v>
+      </c>
+      <c r="FK17">
+        <v>25702</v>
+      </c>
+      <c r="FL17">
+        <v>26357</v>
+      </c>
+      <c r="FM17">
+        <v>25850</v>
+      </c>
+      <c r="FN17">
+        <v>18589</v>
+      </c>
+      <c r="FO17">
+        <v>18515</v>
+      </c>
+      <c r="FP17">
+        <v>18988</v>
+      </c>
+      <c r="FQ17">
+        <v>18525</v>
+      </c>
+      <c r="FR17">
+        <v>18826</v>
+      </c>
+      <c r="FS17">
+        <v>18765</v>
+      </c>
+      <c r="FT17">
+        <v>18581</v>
+      </c>
+      <c r="FU17">
+        <v>18905</v>
+      </c>
+      <c r="FV17">
+        <v>19179</v>
+      </c>
+      <c r="FW17">
+        <v>18652</v>
+      </c>
+      <c r="FX17">
+        <v>18838</v>
+      </c>
+      <c r="FY17">
+        <v>19137</v>
+      </c>
+      <c r="FZ17">
+        <v>19508</v>
+      </c>
+      <c r="GA17">
+        <v>17748</v>
+      </c>
+      <c r="GB17">
+        <v>18621</v>
+      </c>
+      <c r="GC17">
+        <v>18996</v>
+      </c>
     </row>
-    <row r="22" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+    <row r="22" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+    <row r="23" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+    <row r="24" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+    <row r="26" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+    <row r="29" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
-    <row r="32" spans="2:159" x14ac:dyDescent="0.4">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+    <row r="32" spans="2:185" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDAFB85-B402-4C4B-8D01-DD2C84D2F078}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28827C16-41DD-4262-A82D-A38BD2D31481}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12771" yWindow="0" windowWidth="13029" windowHeight="16509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="130">
   <si>
     <t>Waypoint</t>
   </si>
@@ -387,6 +387,42 @@
   </si>
   <si>
     <t>Sin Wave Speed 2 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>0.21,0.00</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 3 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>0.35,-0.03</t>
+  </si>
+  <si>
+    <t>0.20,-0.02</t>
+  </si>
+  <si>
+    <t>0.28,-0.06</t>
+  </si>
+  <si>
+    <t>0.34,-0.04</t>
+  </si>
+  <si>
+    <t>0.21,-0.03</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 1 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.28,0.05</t>
+  </si>
+  <si>
+    <t>0.34,-0.13</t>
+  </si>
+  <si>
+    <t>0.37,-0.14</t>
+  </si>
+  <si>
+    <t>0.09,-0.07</t>
   </si>
 </sst>
 </file>
@@ -752,10 +788,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:GE32"/>
+  <dimension ref="A1:JC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EY1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="GE17" sqref="GE17"/>
+    <sheetView tabSelected="1" topLeftCell="ID1" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="IQ17" sqref="IQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -767,7 +803,7 @@
     <col min="29" max="45" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:187" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:263" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,8 +855,17 @@
       <c r="GE1" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="HE1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="JC1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9.4E-2</v>
       </c>
@@ -1358,8 +1403,197 @@
       <c r="GC2" t="s">
         <v>113</v>
       </c>
+      <c r="GE2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>115</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>85</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>113</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>85</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>116</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>116</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>116</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>113</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>85</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>85</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>115</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>85</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>65</v>
+      </c>
+      <c r="II2" t="s">
+        <v>82</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>77</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>58</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>129</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>58</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>58</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.105</v>
       </c>
@@ -1897,8 +2131,197 @@
       <c r="GC3" t="s">
         <v>51</v>
       </c>
+      <c r="GE3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>22</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>2</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>2</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>39</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>93</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>35</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>30</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>93</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>51</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>51</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>51</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>30</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>121</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>59</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>51</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>30</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>113</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>121</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>90</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>59</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>124</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>93</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>121</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>121</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IG3" t="s">
+        <v>20</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>67</v>
+      </c>
+      <c r="II3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>20</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>20</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>63</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>108</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>63</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>63</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.13699999999999998</v>
       </c>
@@ -2436,8 +2859,197 @@
       <c r="GC4" t="s">
         <v>36</v>
       </c>
+      <c r="GE4" t="s">
+        <v>35</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>35</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>35</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>29</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>29</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>2</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>2</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>29</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>118</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>29</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>21</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>22</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>22</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>22</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>35</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>22</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>22</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>120</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>120</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>89</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>114</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>120</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>30</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>35</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>30</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>120</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>114</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>30</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>35</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>30</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>120</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>122</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>120</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>63</v>
+      </c>
+      <c r="II4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IO4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IQ4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.18</v>
       </c>
@@ -2975,8 +3587,197 @@
       <c r="GC5" t="s">
         <v>89</v>
       </c>
+      <c r="GE5" t="s">
+        <v>3</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>5</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>21</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>3</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>21</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>29</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>21</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HF5" t="s">
+        <v>3</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HI5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP5" t="s">
+        <v>114</v>
+      </c>
+      <c r="HQ5" t="s">
+        <v>120</v>
+      </c>
+      <c r="HR5" t="s">
+        <v>3</v>
+      </c>
+      <c r="HS5" t="s">
+        <v>21</v>
+      </c>
+      <c r="HT5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU5" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV5" t="s">
+        <v>114</v>
+      </c>
+      <c r="HW5" t="s">
+        <v>123</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>3</v>
+      </c>
+      <c r="HY5" t="s">
+        <v>114</v>
+      </c>
+      <c r="HZ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA5" t="s">
+        <v>3</v>
+      </c>
+      <c r="IB5" t="s">
+        <v>123</v>
+      </c>
+      <c r="IC5" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IF5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IG5" t="s">
+        <v>126</v>
+      </c>
+      <c r="IH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="II5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IJ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="IK5" t="s">
+        <v>126</v>
+      </c>
+      <c r="IL5" t="s">
+        <v>62</v>
+      </c>
+      <c r="IM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="IN5" t="s">
+        <v>74</v>
+      </c>
+      <c r="IO5" t="s">
+        <v>74</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="6" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.21299999999999999</v>
       </c>
@@ -3514,8 +4315,197 @@
       <c r="GC6" t="s">
         <v>7</v>
       </c>
+      <c r="GE6" t="s">
+        <v>13</v>
+      </c>
+      <c r="GF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="GG6" t="s">
+        <v>21</v>
+      </c>
+      <c r="GH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>26</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>21</v>
+      </c>
+      <c r="GP6" t="s">
+        <v>21</v>
+      </c>
+      <c r="GQ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT6" t="s">
+        <v>26</v>
+      </c>
+      <c r="GU6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV6" t="s">
+        <v>26</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX6" t="s">
+        <v>5</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>13</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>21</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>62</v>
+      </c>
+      <c r="II6" t="s">
+        <v>62</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>95</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>27</v>
+      </c>
+      <c r="IM6" t="s">
+        <v>76</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>27</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.22399999999999998</v>
       </c>
@@ -4053,8 +5043,197 @@
       <c r="GC7" t="s">
         <v>7</v>
       </c>
+      <c r="GE7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY7" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE7" t="s">
+        <v>5</v>
+      </c>
+      <c r="IF7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IG7" t="s">
+        <v>5</v>
+      </c>
+      <c r="IH7" t="s">
+        <v>27</v>
+      </c>
+      <c r="II7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IJ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="IK7" t="s">
+        <v>127</v>
+      </c>
+      <c r="IL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IN7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP7" t="s">
+        <v>5</v>
+      </c>
+      <c r="IQ7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.26700000000000002</v>
       </c>
@@ -4592,8 +5771,197 @@
       <c r="GC8" t="s">
         <v>7</v>
       </c>
+      <c r="GE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY8" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY8" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="II8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK8" t="s">
+        <v>128</v>
+      </c>
+      <c r="IL8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.29899999999999999</v>
       </c>
@@ -5131,8 +6499,197 @@
       <c r="GC9" t="s">
         <v>7</v>
       </c>
+      <c r="GE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="II9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK9" t="s">
+        <v>25</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.33200000000000002</v>
       </c>
@@ -5670,8 +7227,197 @@
       <c r="GC10" t="s">
         <v>7</v>
       </c>
+      <c r="GE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="II10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.35399999999999998</v>
       </c>
@@ -6209,8 +7955,197 @@
       <c r="GC11" t="s">
         <v>7</v>
       </c>
+      <c r="GE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="II11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -6742,8 +8677,197 @@
       <c r="GC12" t="s">
         <v>7</v>
       </c>
+      <c r="GE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="II12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -7275,8 +9399,197 @@
       <c r="GC13" t="s">
         <v>7</v>
       </c>
+      <c r="GE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="II13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IL13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -7808,8 +10121,197 @@
       <c r="GC14" t="s">
         <v>7</v>
       </c>
+      <c r="GE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="II14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IL14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -8341,8 +10843,197 @@
       <c r="GC15" t="s">
         <v>7</v>
       </c>
+      <c r="GE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="II15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -8874,8 +11565,197 @@
       <c r="GC16" t="s">
         <v>7</v>
       </c>
+      <c r="GE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GH16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GJ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GM16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GN16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GQ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="GZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HC16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HG16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HJ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HN16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IH16" t="s">
+        <v>7</v>
+      </c>
+      <c r="II16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IJ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IM16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IN16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IQ16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:251" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -9410,40 +12290,229 @@
       <c r="GC17">
         <v>18996</v>
       </c>
+      <c r="GE17">
+        <v>10826</v>
+      </c>
+      <c r="GF17">
+        <v>10551</v>
+      </c>
+      <c r="GG17">
+        <v>10687</v>
+      </c>
+      <c r="GH17">
+        <v>10582</v>
+      </c>
+      <c r="GI17">
+        <v>10618</v>
+      </c>
+      <c r="GJ17">
+        <v>10758</v>
+      </c>
+      <c r="GK17">
+        <v>10689</v>
+      </c>
+      <c r="GL17">
+        <v>10550</v>
+      </c>
+      <c r="GM17">
+        <v>10869</v>
+      </c>
+      <c r="GN17">
+        <v>10628</v>
+      </c>
+      <c r="GO17">
+        <v>10581</v>
+      </c>
+      <c r="GP17">
+        <v>10785</v>
+      </c>
+      <c r="GQ17">
+        <v>10815</v>
+      </c>
+      <c r="GR17">
+        <v>10493</v>
+      </c>
+      <c r="GS17">
+        <v>10779</v>
+      </c>
+      <c r="GT17">
+        <v>10942</v>
+      </c>
+      <c r="GU17">
+        <v>10723</v>
+      </c>
+      <c r="GV17">
+        <v>10667</v>
+      </c>
+      <c r="GW17">
+        <v>10695</v>
+      </c>
+      <c r="GX17">
+        <v>10779</v>
+      </c>
+      <c r="GY17">
+        <v>10757</v>
+      </c>
+      <c r="GZ17">
+        <v>10926</v>
+      </c>
+      <c r="HA17">
+        <v>10672</v>
+      </c>
+      <c r="HB17">
+        <v>10818</v>
+      </c>
+      <c r="HC17">
+        <v>10605</v>
+      </c>
+      <c r="HE17">
+        <v>7503</v>
+      </c>
+      <c r="HF17">
+        <v>7526</v>
+      </c>
+      <c r="HG17">
+        <v>7612</v>
+      </c>
+      <c r="HH17">
+        <v>7514</v>
+      </c>
+      <c r="HI17">
+        <v>7558</v>
+      </c>
+      <c r="HJ17">
+        <v>7442</v>
+      </c>
+      <c r="HK17">
+        <v>7654</v>
+      </c>
+      <c r="HL17">
+        <v>7521</v>
+      </c>
+      <c r="HM17">
+        <v>7591</v>
+      </c>
+      <c r="HN17">
+        <v>7624</v>
+      </c>
+      <c r="HO17">
+        <v>7524</v>
+      </c>
+      <c r="HP17">
+        <v>7512</v>
+      </c>
+      <c r="HQ17">
+        <v>7660</v>
+      </c>
+      <c r="HR17">
+        <v>7562</v>
+      </c>
+      <c r="HS17">
+        <v>7729</v>
+      </c>
+      <c r="HT17">
+        <v>7603</v>
+      </c>
+      <c r="HU17">
+        <v>7601</v>
+      </c>
+      <c r="HV17">
+        <v>7636</v>
+      </c>
+      <c r="HW17">
+        <v>7586</v>
+      </c>
+      <c r="HX17">
+        <v>7488</v>
+      </c>
+      <c r="HY17">
+        <v>7561</v>
+      </c>
+      <c r="HZ17">
+        <v>7548</v>
+      </c>
+      <c r="IA17">
+        <v>7650</v>
+      </c>
+      <c r="IB17">
+        <v>7546</v>
+      </c>
+      <c r="IC17">
+        <v>7505</v>
+      </c>
+      <c r="IE17">
+        <v>31127</v>
+      </c>
+      <c r="IF17">
+        <v>31364</v>
+      </c>
+      <c r="IG17">
+        <v>31334</v>
+      </c>
+      <c r="IH17">
+        <v>31335</v>
+      </c>
+      <c r="II17">
+        <v>30938</v>
+      </c>
+      <c r="IJ17">
+        <v>31643</v>
+      </c>
+      <c r="IK17">
+        <v>31378</v>
+      </c>
+      <c r="IL17">
+        <v>31518</v>
+      </c>
+      <c r="IM17">
+        <v>32109</v>
+      </c>
+      <c r="IN17">
+        <v>31929</v>
+      </c>
+      <c r="IO17">
+        <v>32539</v>
+      </c>
+      <c r="IP17">
+        <v>31793</v>
+      </c>
+      <c r="IQ17">
+        <v>31912</v>
+      </c>
     </row>
-    <row r="22" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="32" spans="2:185" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:251" x14ac:dyDescent="0.4">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28827C16-41DD-4262-A82D-A38BD2D31481}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7056CE67-B43B-4506-9CD8-B0725D56F56F}"/>
   <bookViews>
-    <workbookView xWindow="12771" yWindow="0" windowWidth="13029" windowHeight="16509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="13029" windowHeight="16509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="131">
   <si>
     <t>Waypoint</t>
   </si>
@@ -424,6 +424,9 @@
   <si>
     <t>0.09,-0.07</t>
   </si>
+  <si>
+    <t>0.37,-0.13</t>
+  </si>
 </sst>
 </file>
 
@@ -790,8 +793,8 @@
   </sheetPr>
   <dimension ref="A1:JC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ID1" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="IQ17" sqref="IQ17"/>
+    <sheetView tabSelected="1" topLeftCell="IQ1" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="JC14" sqref="JC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1592,6 +1595,36 @@
       <c r="IQ2" t="s">
         <v>65</v>
       </c>
+      <c r="IR2" t="s">
+        <v>129</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>20</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>58</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>129</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -2320,6 +2353,36 @@
       <c r="IQ3" t="s">
         <v>20</v>
       </c>
+      <c r="IR3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>63</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>20</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>20</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -3048,6 +3111,36 @@
       <c r="IQ4" t="s">
         <v>59</v>
       </c>
+      <c r="IR4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IW4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JA4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -3776,6 +3869,36 @@
       <c r="IQ5" t="s">
         <v>61</v>
       </c>
+      <c r="IR5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>73</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IW5" t="s">
+        <v>62</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IY5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="JA5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -4504,6 +4627,36 @@
       <c r="IQ6" t="s">
         <v>73</v>
       </c>
+      <c r="IR6" t="s">
+        <v>76</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>5</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>62</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>62</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>27</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>74</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="JA6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -5232,6 +5385,36 @@
       <c r="IQ7" t="s">
         <v>5</v>
       </c>
+      <c r="IR7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IU7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IV7" t="s">
+        <v>5</v>
+      </c>
+      <c r="IW7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX7" t="s">
+        <v>5</v>
+      </c>
+      <c r="IY7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IZ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JA7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -5960,6 +6143,36 @@
       <c r="IQ8" t="s">
         <v>7</v>
       </c>
+      <c r="IR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -6688,6 +6901,36 @@
       <c r="IQ9" t="s">
         <v>7</v>
       </c>
+      <c r="IR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -7416,6 +7659,36 @@
       <c r="IQ10" t="s">
         <v>7</v>
       </c>
+      <c r="IR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:263" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -8144,6 +8417,36 @@
       <c r="IQ11" t="s">
         <v>7</v>
       </c>
+      <c r="IR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
@@ -8866,6 +9169,36 @@
       <c r="IQ12" t="s">
         <v>7</v>
       </c>
+      <c r="IR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
@@ -9588,6 +9921,36 @@
       <c r="IQ13" t="s">
         <v>7</v>
       </c>
+      <c r="IR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
@@ -10310,6 +10673,36 @@
       <c r="IQ14" t="s">
         <v>7</v>
       </c>
+      <c r="IR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
@@ -11032,6 +11425,36 @@
       <c r="IQ15" t="s">
         <v>7</v>
       </c>
+      <c r="IR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:263" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
@@ -11754,8 +12177,38 @@
       <c r="IQ16" t="s">
         <v>7</v>
       </c>
+      <c r="IR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:261" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -12479,40 +12932,70 @@
       <c r="IQ17">
         <v>31912</v>
       </c>
+      <c r="IR17">
+        <v>31083</v>
+      </c>
+      <c r="IS17">
+        <v>31457</v>
+      </c>
+      <c r="IT17">
+        <v>31359</v>
+      </c>
+      <c r="IU17">
+        <v>31107</v>
+      </c>
+      <c r="IV17">
+        <v>31945</v>
+      </c>
+      <c r="IW17">
+        <v>31471</v>
+      </c>
+      <c r="IX17">
+        <v>31492</v>
+      </c>
+      <c r="IY17">
+        <v>31368</v>
+      </c>
+      <c r="IZ17">
+        <v>30989</v>
+      </c>
+      <c r="JA17">
+        <v>31040</v>
+      </c>
     </row>
-    <row r="22" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="32" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:261" x14ac:dyDescent="0.4">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28827C16-41DD-4262-A82D-A38BD2D31481}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96AB2BE8-FBFB-4B6F-9160-D6B6811C098D}"/>
   <bookViews>
-    <workbookView xWindow="12771" yWindow="0" windowWidth="13029" windowHeight="16509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4123" uniqueCount="135">
   <si>
     <t>Waypoint</t>
   </si>
@@ -424,6 +424,21 @@
   <si>
     <t>0.09,-0.07</t>
   </si>
+  <si>
+    <t>0.10,0.03</t>
+  </si>
+  <si>
+    <t>0.12,0.05</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 2 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.29,0.05</t>
+  </si>
+  <si>
+    <t>0.10,0.05</t>
+  </si>
 </sst>
 </file>
 
@@ -788,10 +803,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:JC32"/>
+  <dimension ref="A1:KC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ID1" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="IQ17" sqref="IQ17"/>
+    <sheetView tabSelected="1" topLeftCell="JS1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="JY22" sqref="JY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -803,7 +818,7 @@
     <col min="29" max="45" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:263" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:289" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -861,11 +876,14 @@
       <c r="IE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="JC1">
+      <c r="JE1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="KC1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9.4E-2</v>
       </c>
@@ -1592,8 +1610,110 @@
       <c r="IQ2" t="s">
         <v>65</v>
       </c>
+      <c r="IR2" t="s">
+        <v>83</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>130</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>77</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>129</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>20</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>67</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>65</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>58</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>58</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>83</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="3" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.105</v>
       </c>
@@ -2320,8 +2440,110 @@
       <c r="IQ3" t="s">
         <v>20</v>
       </c>
+      <c r="IR3" t="s">
+        <v>108</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>83</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>20</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>63</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>58</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>63</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>20</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>77</v>
+      </c>
+      <c r="JG3" t="s">
+        <v>77</v>
+      </c>
+      <c r="JH3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="JK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JL3" t="s">
+        <v>63</v>
+      </c>
+      <c r="JM3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JO3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JP3" t="s">
+        <v>63</v>
+      </c>
+      <c r="JQ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>77</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>20</v>
+      </c>
+      <c r="JY3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.13699999999999998</v>
       </c>
@@ -3048,8 +3270,110 @@
       <c r="IQ4" t="s">
         <v>59</v>
       </c>
+      <c r="IR4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>108</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IW4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>61</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>58</v>
+      </c>
+      <c r="JC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="JE4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JF4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JG4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JH4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JI4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JJ4" t="s">
+        <v>72</v>
+      </c>
+      <c r="JK4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JL4" t="s">
+        <v>60</v>
+      </c>
+      <c r="JM4" t="s">
+        <v>63</v>
+      </c>
+      <c r="JN4" t="s">
+        <v>58</v>
+      </c>
+      <c r="JO4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JP4" t="s">
+        <v>60</v>
+      </c>
+      <c r="JQ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JR4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JS4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JT4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JU4" t="s">
+        <v>58</v>
+      </c>
+      <c r="JV4" t="s">
+        <v>73</v>
+      </c>
+      <c r="JW4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JX4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JY4" t="s">
+        <v>67</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.18</v>
       </c>
@@ -3776,8 +4100,110 @@
       <c r="IQ5" t="s">
         <v>61</v>
       </c>
+      <c r="IR5" t="s">
+        <v>70</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>63</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>126</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>73</v>
+      </c>
+      <c r="IW5" t="s">
+        <v>76</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>61</v>
+      </c>
+      <c r="IY5" t="s">
+        <v>74</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="JA5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JB5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JC5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JE5" t="s">
+        <v>60</v>
+      </c>
+      <c r="JF5" t="s">
+        <v>133</v>
+      </c>
+      <c r="JG5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JH5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="JJ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JK5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JL5" t="s">
+        <v>74</v>
+      </c>
+      <c r="JM5" t="s">
+        <v>60</v>
+      </c>
+      <c r="JN5" t="s">
+        <v>63</v>
+      </c>
+      <c r="JO5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JP5" t="s">
+        <v>62</v>
+      </c>
+      <c r="JQ5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JR5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JS5" t="s">
+        <v>72</v>
+      </c>
+      <c r="JT5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JU5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JV5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW5" t="s">
+        <v>126</v>
+      </c>
+      <c r="JX5" t="s">
+        <v>126</v>
+      </c>
+      <c r="JY5" t="s">
+        <v>63</v>
+      </c>
+      <c r="JZ5" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.21299999999999999</v>
       </c>
@@ -4504,8 +4930,110 @@
       <c r="IQ6" t="s">
         <v>73</v>
       </c>
+      <c r="IR6" t="s">
+        <v>76</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>70</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>95</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>74</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>5</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>27</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>73</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>27</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="JA6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>126</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>95</v>
+      </c>
+      <c r="JG6" t="s">
+        <v>126</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>133</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>27</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JL6" t="s">
+        <v>27</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JN6" t="s">
+        <v>61</v>
+      </c>
+      <c r="JO6" t="s">
+        <v>126</v>
+      </c>
+      <c r="JP6" t="s">
+        <v>27</v>
+      </c>
+      <c r="JQ6" t="s">
+        <v>133</v>
+      </c>
+      <c r="JR6" t="s">
+        <v>73</v>
+      </c>
+      <c r="JS6" t="s">
+        <v>5</v>
+      </c>
+      <c r="JT6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JU6" t="s">
+        <v>61</v>
+      </c>
+      <c r="JV6" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW6" t="s">
+        <v>78</v>
+      </c>
+      <c r="JX6" t="s">
+        <v>78</v>
+      </c>
+      <c r="JY6" t="s">
+        <v>64</v>
+      </c>
+      <c r="JZ6" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.22399999999999998</v>
       </c>
@@ -5232,8 +5760,110 @@
       <c r="IQ7" t="s">
         <v>5</v>
       </c>
+      <c r="IR7" t="s">
+        <v>89</v>
+      </c>
+      <c r="IS7" t="s">
+        <v>76</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>97</v>
+      </c>
+      <c r="IU7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IY7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JA7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JC7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JE7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JF7" t="s">
+        <v>127</v>
+      </c>
+      <c r="JG7" t="s">
+        <v>95</v>
+      </c>
+      <c r="JH7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JI7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JN7" t="s">
+        <v>76</v>
+      </c>
+      <c r="JO7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JP7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JR7" t="s">
+        <v>5</v>
+      </c>
+      <c r="JS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JU7" t="s">
+        <v>62</v>
+      </c>
+      <c r="JV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW7" t="s">
+        <v>127</v>
+      </c>
+      <c r="JX7" t="s">
+        <v>97</v>
+      </c>
+      <c r="JY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="JZ7" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="8" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.26700000000000002</v>
       </c>
@@ -5960,8 +6590,110 @@
       <c r="IQ8" t="s">
         <v>7</v>
       </c>
+      <c r="IR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS8" t="s">
+        <v>89</v>
+      </c>
+      <c r="IT8" t="s">
+        <v>25</v>
+      </c>
+      <c r="IU8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY8" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB8" t="s">
+        <v>5</v>
+      </c>
+      <c r="JC8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JG8" t="s">
+        <v>127</v>
+      </c>
+      <c r="JH8" t="s">
+        <v>5</v>
+      </c>
+      <c r="JI8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN8" t="s">
+        <v>27</v>
+      </c>
+      <c r="JO8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ8" t="s">
+        <v>5</v>
+      </c>
+      <c r="JR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU8" t="s">
+        <v>27</v>
+      </c>
+      <c r="JV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JX8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JY8" t="s">
+        <v>89</v>
+      </c>
+      <c r="JZ8" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.29899999999999999</v>
       </c>
@@ -6688,8 +7420,110 @@
       <c r="IQ9" t="s">
         <v>7</v>
       </c>
+      <c r="IR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG9" t="s">
+        <v>25</v>
+      </c>
+      <c r="JH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.33200000000000002</v>
       </c>
@@ -7416,8 +8250,110 @@
       <c r="IQ10" t="s">
         <v>7</v>
       </c>
+      <c r="IR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:289" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.35399999999999998</v>
       </c>
@@ -8144,8 +9080,110 @@
       <c r="IQ11" t="s">
         <v>7</v>
       </c>
+      <c r="IR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:289" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -8866,8 +9904,110 @@
       <c r="IQ12" t="s">
         <v>7</v>
       </c>
+      <c r="IR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:289" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -9588,8 +10728,110 @@
       <c r="IQ13" t="s">
         <v>7</v>
       </c>
+      <c r="IR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:289" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -10310,8 +11552,110 @@
       <c r="IQ14" t="s">
         <v>7</v>
       </c>
+      <c r="IR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:289" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11032,8 +12376,110 @@
       <c r="IQ15" t="s">
         <v>7</v>
       </c>
+      <c r="IR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:289" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -11754,8 +13200,110 @@
       <c r="IQ16" t="s">
         <v>7</v>
       </c>
+      <c r="IR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="IZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:286" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -12479,40 +14027,142 @@
       <c r="IQ17">
         <v>31912</v>
       </c>
+      <c r="IR17">
+        <v>31332</v>
+      </c>
+      <c r="IS17">
+        <v>30316</v>
+      </c>
+      <c r="IT17">
+        <v>31051</v>
+      </c>
+      <c r="IU17">
+        <v>32160</v>
+      </c>
+      <c r="IV17">
+        <v>31760</v>
+      </c>
+      <c r="IW17">
+        <v>3108</v>
+      </c>
+      <c r="IX17">
+        <v>30726</v>
+      </c>
+      <c r="IY17">
+        <v>30532</v>
+      </c>
+      <c r="IZ17">
+        <v>31120</v>
+      </c>
+      <c r="JA17">
+        <v>31129</v>
+      </c>
+      <c r="JB17">
+        <v>30983</v>
+      </c>
+      <c r="JC17">
+        <v>31140</v>
+      </c>
+      <c r="JE17">
+        <v>20570</v>
+      </c>
+      <c r="JF17">
+        <v>20152</v>
+      </c>
+      <c r="JG17">
+        <v>20126</v>
+      </c>
+      <c r="JH17">
+        <v>20537</v>
+      </c>
+      <c r="JI17">
+        <v>20785</v>
+      </c>
+      <c r="JJ17">
+        <v>20634</v>
+      </c>
+      <c r="JK17">
+        <v>20720</v>
+      </c>
+      <c r="JL17">
+        <v>20331</v>
+      </c>
+      <c r="JM17">
+        <v>20639</v>
+      </c>
+      <c r="JN17">
+        <v>20721</v>
+      </c>
+      <c r="JO17">
+        <v>20491</v>
+      </c>
+      <c r="JP17">
+        <v>20460</v>
+      </c>
+      <c r="JQ17">
+        <v>20267</v>
+      </c>
+      <c r="JR17">
+        <v>20645</v>
+      </c>
+      <c r="JS17">
+        <v>20517</v>
+      </c>
+      <c r="JT17">
+        <v>20865</v>
+      </c>
+      <c r="JU17">
+        <v>20794</v>
+      </c>
+      <c r="JV17">
+        <v>20804</v>
+      </c>
+      <c r="JW17">
+        <v>20816</v>
+      </c>
+      <c r="JX17">
+        <v>20703</v>
+      </c>
+      <c r="JY17">
+        <v>20466</v>
+      </c>
+      <c r="JZ17">
+        <v>20975</v>
+      </c>
     </row>
-    <row r="22" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="32" spans="2:251" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:286" x14ac:dyDescent="0.4">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{2AB8BB8F-3883-4F61-86EB-D8D4227E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7056CE67-B43B-4506-9CD8-B0725D56F56F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74FBDC4D-1E89-4A1C-AADB-D0E4A792586F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="13029" windowHeight="16509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="139">
   <si>
     <t>Waypoint</t>
   </si>
@@ -425,7 +425,31 @@
     <t>0.09,-0.07</t>
   </si>
   <si>
-    <t>0.37,-0.13</t>
+    <t>0.10,0.03</t>
+  </si>
+  <si>
+    <t>0.12,0.05</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 2 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.29,0.05</t>
+  </si>
+  <si>
+    <t>0.10,0.05</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 3 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.29,0.06</t>
+  </si>
+  <si>
+    <t>0.33,-0.13</t>
+  </si>
+  <si>
+    <t>0.23,-0.00</t>
   </si>
 </sst>
 </file>
@@ -791,10 +815,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:JC32"/>
+  <dimension ref="A1:LC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IQ1" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="JC14" sqref="JC14"/>
+    <sheetView tabSelected="1" topLeftCell="KC1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="LA22" sqref="LA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -806,7 +830,7 @@
     <col min="29" max="45" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:263" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -864,11 +888,17 @@
       <c r="IE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="JC1">
+      <c r="JE1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="LC1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9.4E-2</v>
       </c>
@@ -1596,37 +1626,193 @@
         <v>65</v>
       </c>
       <c r="IR2" t="s">
+        <v>83</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>130</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>77</v>
+      </c>
+      <c r="IU2" t="s">
         <v>129</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="IV2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
-        <v>65</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>65</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>65</v>
-      </c>
       <c r="IW2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="IX2" t="s">
         <v>65</v>
       </c>
       <c r="IY2" t="s">
+        <v>58</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>58</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>83</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>104</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KE2" t="s">
         <v>129</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>131</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>65</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KL2" t="s">
         <v>77</v>
       </c>
-      <c r="JA2" t="s">
-        <v>77</v>
+      <c r="KM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>82</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>134</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>82</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>58</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>20</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>104</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.105</v>
       </c>
@@ -2354,37 +2540,193 @@
         <v>20</v>
       </c>
       <c r="IR3" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="IS3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="IT3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="IU3" t="s">
         <v>58</v>
       </c>
       <c r="IV3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="IW3" t="s">
         <v>63</v>
       </c>
       <c r="IX3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="IY3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="IZ3" t="s">
         <v>20</v>
       </c>
       <c r="JA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>77</v>
+      </c>
+      <c r="JG3" t="s">
+        <v>77</v>
+      </c>
+      <c r="JH3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="JK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JL3" t="s">
+        <v>63</v>
+      </c>
+      <c r="JM3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JO3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JP3" t="s">
+        <v>63</v>
+      </c>
+      <c r="JQ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>65</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>77</v>
+      </c>
+      <c r="JX3" t="s">
         <v>20</v>
       </c>
+      <c r="JY3" t="s">
+        <v>83</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="KB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="KC3" t="s">
+        <v>65</v>
+      </c>
+      <c r="KE3" t="s">
+        <v>108</v>
+      </c>
+      <c r="KF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KG3" t="s">
+        <v>65</v>
+      </c>
+      <c r="KH3" t="s">
+        <v>63</v>
+      </c>
+      <c r="KI3" t="s">
+        <v>20</v>
+      </c>
+      <c r="KJ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KK3" t="s">
+        <v>20</v>
+      </c>
+      <c r="KL3" t="s">
+        <v>20</v>
+      </c>
+      <c r="KM3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KN3" t="s">
+        <v>65</v>
+      </c>
+      <c r="KO3" t="s">
+        <v>65</v>
+      </c>
+      <c r="KP3" t="s">
+        <v>65</v>
+      </c>
+      <c r="KQ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KR3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KS3" t="s">
+        <v>65</v>
+      </c>
+      <c r="KT3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KU3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KV3" t="s">
+        <v>63</v>
+      </c>
+      <c r="KW3" t="s">
+        <v>20</v>
+      </c>
+      <c r="KX3" t="s">
+        <v>59</v>
+      </c>
+      <c r="KY3" t="s">
+        <v>83</v>
+      </c>
+      <c r="KZ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="LA3" t="s">
+        <v>65</v>
+      </c>
+      <c r="LB3" t="s">
+        <v>77</v>
+      </c>
+      <c r="LC3" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="4" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.13699999999999998</v>
       </c>
@@ -3115,34 +3457,190 @@
         <v>63</v>
       </c>
       <c r="IS4" t="s">
+        <v>108</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>59</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>63</v>
+      </c>
+      <c r="IV4" t="s">
         <v>61</v>
-      </c>
-      <c r="IT4" t="s">
-        <v>63</v>
-      </c>
-      <c r="IU4" t="s">
-        <v>59</v>
-      </c>
-      <c r="IV4" t="s">
-        <v>59</v>
       </c>
       <c r="IW4" t="s">
         <v>61</v>
       </c>
       <c r="IX4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="IY4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IZ4" t="s">
         <v>59</v>
       </c>
       <c r="JA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>58</v>
+      </c>
+      <c r="JC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="JE4" t="s">
         <v>59</v>
       </c>
+      <c r="JF4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JG4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JH4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JI4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JJ4" t="s">
+        <v>72</v>
+      </c>
+      <c r="JK4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JL4" t="s">
+        <v>60</v>
+      </c>
+      <c r="JM4" t="s">
+        <v>63</v>
+      </c>
+      <c r="JN4" t="s">
+        <v>58</v>
+      </c>
+      <c r="JO4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JP4" t="s">
+        <v>60</v>
+      </c>
+      <c r="JQ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="JR4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JS4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JT4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JU4" t="s">
+        <v>58</v>
+      </c>
+      <c r="JV4" t="s">
+        <v>73</v>
+      </c>
+      <c r="JW4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JX4" t="s">
+        <v>59</v>
+      </c>
+      <c r="JY4" t="s">
+        <v>67</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="KA4" t="s">
+        <v>59</v>
+      </c>
+      <c r="KB4" t="s">
+        <v>60</v>
+      </c>
+      <c r="KC4" t="s">
+        <v>20</v>
+      </c>
+      <c r="KE4" t="s">
+        <v>63</v>
+      </c>
+      <c r="KF4" t="s">
+        <v>22</v>
+      </c>
+      <c r="KG4" t="s">
+        <v>20</v>
+      </c>
+      <c r="KH4" t="s">
+        <v>60</v>
+      </c>
+      <c r="KI4" t="s">
+        <v>59</v>
+      </c>
+      <c r="KJ4" t="s">
+        <v>63</v>
+      </c>
+      <c r="KK4" t="s">
+        <v>63</v>
+      </c>
+      <c r="KL4" t="s">
+        <v>59</v>
+      </c>
+      <c r="KM4" t="s">
+        <v>67</v>
+      </c>
+      <c r="KN4" t="s">
+        <v>20</v>
+      </c>
+      <c r="KO4" t="s">
+        <v>58</v>
+      </c>
+      <c r="KP4" t="s">
+        <v>58</v>
+      </c>
+      <c r="KQ4" t="s">
+        <v>63</v>
+      </c>
+      <c r="KR4" t="s">
+        <v>59</v>
+      </c>
+      <c r="KS4" t="s">
+        <v>20</v>
+      </c>
+      <c r="KT4" t="s">
+        <v>30</v>
+      </c>
+      <c r="KU4" t="s">
+        <v>59</v>
+      </c>
+      <c r="KV4" t="s">
+        <v>60</v>
+      </c>
+      <c r="KW4" t="s">
+        <v>63</v>
+      </c>
+      <c r="KX4" t="s">
+        <v>60</v>
+      </c>
+      <c r="KY4" t="s">
+        <v>59</v>
+      </c>
+      <c r="KZ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="LA4" t="s">
+        <v>20</v>
+      </c>
+      <c r="LB4" t="s">
+        <v>138</v>
+      </c>
+      <c r="LC4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.18</v>
       </c>
@@ -3870,37 +4368,193 @@
         <v>61</v>
       </c>
       <c r="IR5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="IS5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="IT5" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="IU5" t="s">
         <v>61</v>
       </c>
       <c r="IV5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="IW5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="IX5" t="s">
         <v>61</v>
       </c>
       <c r="IY5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="IZ5" t="s">
         <v>126</v>
       </c>
       <c r="JA5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JB5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JC5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JE5" t="s">
+        <v>60</v>
+      </c>
+      <c r="JF5" t="s">
+        <v>133</v>
+      </c>
+      <c r="JG5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JH5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="JJ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JK5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JL5" t="s">
+        <v>74</v>
+      </c>
+      <c r="JM5" t="s">
+        <v>60</v>
+      </c>
+      <c r="JN5" t="s">
+        <v>63</v>
+      </c>
+      <c r="JO5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JP5" t="s">
+        <v>62</v>
+      </c>
+      <c r="JQ5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JR5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JS5" t="s">
+        <v>72</v>
+      </c>
+      <c r="JT5" t="s">
+        <v>61</v>
+      </c>
+      <c r="JU5" t="s">
+        <v>59</v>
+      </c>
+      <c r="JV5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW5" t="s">
         <v>126</v>
       </c>
+      <c r="JX5" t="s">
+        <v>126</v>
+      </c>
+      <c r="JY5" t="s">
+        <v>63</v>
+      </c>
+      <c r="JZ5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="KB5" t="s">
+        <v>74</v>
+      </c>
+      <c r="KC5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KE5" t="s">
+        <v>64</v>
+      </c>
+      <c r="KF5" t="s">
+        <v>72</v>
+      </c>
+      <c r="KG5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KH5" t="s">
+        <v>62</v>
+      </c>
+      <c r="KI5" t="s">
+        <v>136</v>
+      </c>
+      <c r="KJ5" t="s">
+        <v>74</v>
+      </c>
+      <c r="KK5" t="s">
+        <v>60</v>
+      </c>
+      <c r="KL5" t="s">
+        <v>133</v>
+      </c>
+      <c r="KM5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KN5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KO5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KP5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KQ5" t="s">
+        <v>74</v>
+      </c>
+      <c r="KR5" t="s">
+        <v>72</v>
+      </c>
+      <c r="KS5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KT5" t="s">
+        <v>59</v>
+      </c>
+      <c r="KU5" t="s">
+        <v>60</v>
+      </c>
+      <c r="KV5" t="s">
+        <v>74</v>
+      </c>
+      <c r="KW5" t="s">
+        <v>60</v>
+      </c>
+      <c r="KX5" t="s">
+        <v>73</v>
+      </c>
+      <c r="KY5" t="s">
+        <v>74</v>
+      </c>
+      <c r="KZ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="LA5" t="s">
+        <v>59</v>
+      </c>
+      <c r="LB5" t="s">
+        <v>90</v>
+      </c>
+      <c r="LC5" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="6" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.21299999999999999</v>
       </c>
@@ -4631,16 +5285,16 @@
         <v>76</v>
       </c>
       <c r="IS6" t="s">
+        <v>70</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>95</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>74</v>
+      </c>
+      <c r="IV6" t="s">
         <v>5</v>
-      </c>
-      <c r="IT6" t="s">
-        <v>62</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>62</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>73</v>
       </c>
       <c r="IW6" t="s">
         <v>27</v>
@@ -4649,16 +5303,172 @@
         <v>73</v>
       </c>
       <c r="IY6" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="IZ6" t="s">
         <v>73</v>
       </c>
       <c r="JA6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>126</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JF6" t="s">
         <v>95</v>
       </c>
+      <c r="JG6" t="s">
+        <v>126</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>133</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>27</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JL6" t="s">
+        <v>27</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JN6" t="s">
+        <v>61</v>
+      </c>
+      <c r="JO6" t="s">
+        <v>126</v>
+      </c>
+      <c r="JP6" t="s">
+        <v>27</v>
+      </c>
+      <c r="JQ6" t="s">
+        <v>133</v>
+      </c>
+      <c r="JR6" t="s">
+        <v>73</v>
+      </c>
+      <c r="JS6" t="s">
+        <v>5</v>
+      </c>
+      <c r="JT6" t="s">
+        <v>74</v>
+      </c>
+      <c r="JU6" t="s">
+        <v>61</v>
+      </c>
+      <c r="JV6" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW6" t="s">
+        <v>78</v>
+      </c>
+      <c r="JX6" t="s">
+        <v>78</v>
+      </c>
+      <c r="JY6" t="s">
+        <v>64</v>
+      </c>
+      <c r="JZ6" t="s">
+        <v>60</v>
+      </c>
+      <c r="KA6" t="s">
+        <v>127</v>
+      </c>
+      <c r="KB6" t="s">
+        <v>27</v>
+      </c>
+      <c r="KC6" t="s">
+        <v>133</v>
+      </c>
+      <c r="KE6" t="s">
+        <v>76</v>
+      </c>
+      <c r="KF6" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG6" t="s">
+        <v>133</v>
+      </c>
+      <c r="KH6" t="s">
+        <v>27</v>
+      </c>
+      <c r="KI6" t="s">
+        <v>95</v>
+      </c>
+      <c r="KJ6" t="s">
+        <v>27</v>
+      </c>
+      <c r="KK6" t="s">
+        <v>73</v>
+      </c>
+      <c r="KL6" t="s">
+        <v>73</v>
+      </c>
+      <c r="KM6" t="s">
+        <v>64</v>
+      </c>
+      <c r="KN6" t="s">
+        <v>133</v>
+      </c>
+      <c r="KO6" t="s">
+        <v>61</v>
+      </c>
+      <c r="KP6" t="s">
+        <v>133</v>
+      </c>
+      <c r="KQ6" t="s">
+        <v>27</v>
+      </c>
+      <c r="KR6" t="s">
+        <v>5</v>
+      </c>
+      <c r="KS6" t="s">
+        <v>133</v>
+      </c>
+      <c r="KT6" t="s">
+        <v>74</v>
+      </c>
+      <c r="KU6" t="s">
+        <v>74</v>
+      </c>
+      <c r="KV6" t="s">
+        <v>27</v>
+      </c>
+      <c r="KW6" t="s">
+        <v>74</v>
+      </c>
+      <c r="KX6" t="s">
+        <v>5</v>
+      </c>
+      <c r="KY6" t="s">
+        <v>98</v>
+      </c>
+      <c r="KZ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA6" t="s">
+        <v>126</v>
+      </c>
+      <c r="LB6" t="s">
+        <v>136</v>
+      </c>
+      <c r="LC6" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="7" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.22399999999999998</v>
       </c>
@@ -5386,37 +6196,193 @@
         <v>5</v>
       </c>
       <c r="IR7" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="IS7" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="IT7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="IU7" t="s">
         <v>27</v>
       </c>
       <c r="IV7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="IW7" t="s">
         <v>7</v>
       </c>
       <c r="IX7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="IY7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="IZ7" t="s">
         <v>26</v>
       </c>
       <c r="JA7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JC7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JE7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JF7" t="s">
         <v>127</v>
       </c>
+      <c r="JG7" t="s">
+        <v>95</v>
+      </c>
+      <c r="JH7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JI7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JN7" t="s">
+        <v>76</v>
+      </c>
+      <c r="JO7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JP7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="JR7" t="s">
+        <v>5</v>
+      </c>
+      <c r="JS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT7" t="s">
+        <v>27</v>
+      </c>
+      <c r="JU7" t="s">
+        <v>62</v>
+      </c>
+      <c r="JV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW7" t="s">
+        <v>127</v>
+      </c>
+      <c r="JX7" t="s">
+        <v>97</v>
+      </c>
+      <c r="JY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="JZ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="KA7" t="s">
+        <v>25</v>
+      </c>
+      <c r="KB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC7" t="s">
+        <v>73</v>
+      </c>
+      <c r="KE7" t="s">
+        <v>27</v>
+      </c>
+      <c r="KF7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG7" t="s">
+        <v>73</v>
+      </c>
+      <c r="KH7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI7" t="s">
+        <v>137</v>
+      </c>
+      <c r="KJ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK7" t="s">
+        <v>5</v>
+      </c>
+      <c r="KL7" t="s">
+        <v>26</v>
+      </c>
+      <c r="KM7" t="s">
+        <v>76</v>
+      </c>
+      <c r="KN7" t="s">
+        <v>73</v>
+      </c>
+      <c r="KO7" t="s">
+        <v>62</v>
+      </c>
+      <c r="KP7" t="s">
+        <v>73</v>
+      </c>
+      <c r="KQ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS7" t="s">
+        <v>73</v>
+      </c>
+      <c r="KT7" t="s">
+        <v>27</v>
+      </c>
+      <c r="KU7" t="s">
+        <v>27</v>
+      </c>
+      <c r="KV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW7" t="s">
+        <v>27</v>
+      </c>
+      <c r="KX7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY7" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA7" t="s">
+        <v>73</v>
+      </c>
+      <c r="LB7" t="s">
+        <v>95</v>
+      </c>
+      <c r="LC7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.26700000000000002</v>
       </c>
@@ -6147,10 +7113,10 @@
         <v>7</v>
       </c>
       <c r="IS8" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="IT8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="IU8" t="s">
         <v>7</v>
@@ -6171,10 +7137,166 @@
         <v>7</v>
       </c>
       <c r="JA8" t="s">
-        <v>130</v>
+        <v>7</v>
+      </c>
+      <c r="JB8" t="s">
+        <v>5</v>
+      </c>
+      <c r="JC8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JG8" t="s">
+        <v>127</v>
+      </c>
+      <c r="JH8" t="s">
+        <v>5</v>
+      </c>
+      <c r="JI8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN8" t="s">
+        <v>27</v>
+      </c>
+      <c r="JO8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ8" t="s">
+        <v>5</v>
+      </c>
+      <c r="JR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU8" t="s">
+        <v>27</v>
+      </c>
+      <c r="JV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JX8" t="s">
+        <v>25</v>
+      </c>
+      <c r="JY8" t="s">
+        <v>89</v>
+      </c>
+      <c r="JZ8" t="s">
+        <v>27</v>
+      </c>
+      <c r="KA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC8" t="s">
+        <v>26</v>
+      </c>
+      <c r="KE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG8" t="s">
+        <v>26</v>
+      </c>
+      <c r="KH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI8" t="s">
+        <v>25</v>
+      </c>
+      <c r="KJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM8" t="s">
+        <v>89</v>
+      </c>
+      <c r="KN8" t="s">
+        <v>5</v>
+      </c>
+      <c r="KO8" t="s">
+        <v>27</v>
+      </c>
+      <c r="KP8" t="s">
+        <v>5</v>
+      </c>
+      <c r="KQ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS8" t="s">
+        <v>26</v>
+      </c>
+      <c r="KT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY8" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA8" t="s">
+        <v>25</v>
+      </c>
+      <c r="LB8" t="s">
+        <v>137</v>
+      </c>
+      <c r="LC8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.29899999999999999</v>
       </c>
@@ -6929,10 +8051,166 @@
         <v>7</v>
       </c>
       <c r="JA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG9" t="s">
         <v>25</v>
       </c>
+      <c r="JH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY9" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB9" t="s">
+        <v>25</v>
+      </c>
+      <c r="LC9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.33200000000000002</v>
       </c>
@@ -7689,8 +8967,164 @@
       <c r="JA10" t="s">
         <v>7</v>
       </c>
+      <c r="JB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY10" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA10" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="LC10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.35399999999999998</v>
       </c>
@@ -8447,8 +9881,164 @@
       <c r="JA11" t="s">
         <v>7</v>
       </c>
+      <c r="JB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY11" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA11" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="LC11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:315" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -9199,8 +10789,164 @@
       <c r="JA12" t="s">
         <v>7</v>
       </c>
+      <c r="JB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY12" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="LC12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:315" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -9951,8 +11697,164 @@
       <c r="JA13" t="s">
         <v>7</v>
       </c>
+      <c r="JB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="LC13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:315" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -10703,8 +12605,164 @@
       <c r="JA14" t="s">
         <v>7</v>
       </c>
+      <c r="JB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY14" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA14" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="LC14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -11455,8 +13513,164 @@
       <c r="JA15" t="s">
         <v>7</v>
       </c>
+      <c r="JB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY15" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="LC15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:263" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:315" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -12207,8 +14421,164 @@
       <c r="JA16" t="s">
         <v>7</v>
       </c>
+      <c r="JB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JC16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JG16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JH16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JN16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KH16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KJ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KM16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KN16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KQ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KT16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KU16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KV16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KY16" t="s">
+        <v>7</v>
+      </c>
+      <c r="KZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="LB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="LC16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:315" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -12933,69 +15303,225 @@
         <v>31912</v>
       </c>
       <c r="IR17">
-        <v>31083</v>
+        <v>31332</v>
       </c>
       <c r="IS17">
-        <v>31457</v>
+        <v>30316</v>
       </c>
       <c r="IT17">
-        <v>31359</v>
+        <v>31051</v>
       </c>
       <c r="IU17">
-        <v>31107</v>
+        <v>32160</v>
       </c>
       <c r="IV17">
-        <v>31945</v>
+        <v>31760</v>
       </c>
       <c r="IW17">
-        <v>31471</v>
+        <v>3108</v>
       </c>
       <c r="IX17">
-        <v>31492</v>
+        <v>30726</v>
       </c>
       <c r="IY17">
-        <v>31368</v>
+        <v>30532</v>
       </c>
       <c r="IZ17">
-        <v>30989</v>
+        <v>31120</v>
       </c>
       <c r="JA17">
-        <v>31040</v>
+        <v>31129</v>
+      </c>
+      <c r="JB17">
+        <v>30983</v>
+      </c>
+      <c r="JC17">
+        <v>31140</v>
+      </c>
+      <c r="JE17">
+        <v>20570</v>
+      </c>
+      <c r="JF17">
+        <v>20152</v>
+      </c>
+      <c r="JG17">
+        <v>20126</v>
+      </c>
+      <c r="JH17">
+        <v>20537</v>
+      </c>
+      <c r="JI17">
+        <v>20785</v>
+      </c>
+      <c r="JJ17">
+        <v>20634</v>
+      </c>
+      <c r="JK17">
+        <v>20720</v>
+      </c>
+      <c r="JL17">
+        <v>20331</v>
+      </c>
+      <c r="JM17">
+        <v>20639</v>
+      </c>
+      <c r="JN17">
+        <v>20721</v>
+      </c>
+      <c r="JO17">
+        <v>20491</v>
+      </c>
+      <c r="JP17">
+        <v>20460</v>
+      </c>
+      <c r="JQ17">
+        <v>20267</v>
+      </c>
+      <c r="JR17">
+        <v>20645</v>
+      </c>
+      <c r="JS17">
+        <v>20517</v>
+      </c>
+      <c r="JT17">
+        <v>20865</v>
+      </c>
+      <c r="JU17">
+        <v>20794</v>
+      </c>
+      <c r="JV17">
+        <v>20804</v>
+      </c>
+      <c r="JW17">
+        <v>20816</v>
+      </c>
+      <c r="JX17">
+        <v>20703</v>
+      </c>
+      <c r="JY17">
+        <v>20466</v>
+      </c>
+      <c r="JZ17">
+        <v>20975</v>
+      </c>
+      <c r="KA17">
+        <v>20837</v>
+      </c>
+      <c r="KB17">
+        <v>20603</v>
+      </c>
+      <c r="KC17">
+        <v>20521</v>
+      </c>
+      <c r="KE17">
+        <v>15297</v>
+      </c>
+      <c r="KF17">
+        <v>14955</v>
+      </c>
+      <c r="KG17">
+        <v>15130</v>
+      </c>
+      <c r="KH17">
+        <v>15156</v>
+      </c>
+      <c r="KI17">
+        <v>15048</v>
+      </c>
+      <c r="KJ17">
+        <v>14960</v>
+      </c>
+      <c r="KK17">
+        <v>15094</v>
+      </c>
+      <c r="KL17">
+        <v>14954</v>
+      </c>
+      <c r="KM17">
+        <v>15289</v>
+      </c>
+      <c r="KN17">
+        <v>14897</v>
+      </c>
+      <c r="KO17">
+        <v>15192</v>
+      </c>
+      <c r="KP17">
+        <v>15150</v>
+      </c>
+      <c r="KQ17">
+        <v>15338</v>
+      </c>
+      <c r="KR17">
+        <v>15379</v>
+      </c>
+      <c r="KS17">
+        <v>15304</v>
+      </c>
+      <c r="KT17">
+        <v>15443</v>
+      </c>
+      <c r="KU17">
+        <v>15450</v>
+      </c>
+      <c r="KV17">
+        <v>15430</v>
+      </c>
+      <c r="KW17">
+        <v>16597</v>
+      </c>
+      <c r="KX17">
+        <v>14747</v>
+      </c>
+      <c r="KY17">
+        <v>14606</v>
+      </c>
+      <c r="KZ17">
+        <v>14628</v>
+      </c>
+      <c r="LA17">
+        <v>14599</v>
+      </c>
+      <c r="LB17">
+        <v>14698</v>
+      </c>
+      <c r="LC17">
+        <v>14910</v>
       </c>
     </row>
-    <row r="22" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="32" spans="2:261" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:315" x14ac:dyDescent="0.4">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>

--- a/Assessment 2 v1/Results Waypoint 2.xlsx
+++ b/Assessment 2 v1/Results Waypoint 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74FBDC4D-1E89-4A1C-AADB-D0E4A792586F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{74FBDC4D-1E89-4A1C-AADB-D0E4A792586F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A1B30F-C607-4060-B071-23AB668C59A7}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3394" yWindow="3394" windowWidth="19286" windowHeight="12026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:LC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KC1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="LA22" sqref="LA22"/>
+    <sheetView tabSelected="1" topLeftCell="KO1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="LE7" sqref="LE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -893,9 +893,6 @@
       </c>
       <c r="KE1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="LC1">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:315" x14ac:dyDescent="0.4">
